--- a/2/5/1/Divisiones 2018 a 2021 - Mensual.xlsx
+++ b/2/5/1/Divisiones 2018 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Serie</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -536,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2305,6 +2308,47 @@
         <v>109.83</v>
       </c>
     </row>
+    <row r="44" spans="1:13">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44">
+        <v>114.7</v>
+      </c>
+      <c r="C44">
+        <v>109.27</v>
+      </c>
+      <c r="D44">
+        <v>98.47</v>
+      </c>
+      <c r="E44">
+        <v>111.1</v>
+      </c>
+      <c r="F44">
+        <v>111.5</v>
+      </c>
+      <c r="G44">
+        <v>107.27</v>
+      </c>
+      <c r="H44">
+        <v>110.74</v>
+      </c>
+      <c r="I44">
+        <v>93.41</v>
+      </c>
+      <c r="J44">
+        <v>109.05</v>
+      </c>
+      <c r="K44">
+        <v>112.12</v>
+      </c>
+      <c r="L44">
+        <v>108.96</v>
+      </c>
+      <c r="M44">
+        <v>110.68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2/5/1/Divisiones 2018 a 2021 - Mensual.xlsx
+++ b/2/5/1/Divisiones 2018 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Serie</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -539,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2349,6 +2352,47 @@
         <v>110.68</v>
       </c>
     </row>
+    <row r="45" spans="1:13">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45">
+        <v>114.79</v>
+      </c>
+      <c r="C45">
+        <v>108.39</v>
+      </c>
+      <c r="D45">
+        <v>98.64</v>
+      </c>
+      <c r="E45">
+        <v>112.08</v>
+      </c>
+      <c r="F45">
+        <v>111.59</v>
+      </c>
+      <c r="G45">
+        <v>107.16</v>
+      </c>
+      <c r="H45">
+        <v>111.31</v>
+      </c>
+      <c r="I45">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="J45">
+        <v>109.06</v>
+      </c>
+      <c r="K45">
+        <v>112.29</v>
+      </c>
+      <c r="L45">
+        <v>110.96</v>
+      </c>
+      <c r="M45">
+        <v>111.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2/5/1/Divisiones 2018 a 2021 - Mensual.xlsx
+++ b/2/5/1/Divisiones 2018 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Serie</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -542,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2393,6 +2396,47 @@
         <v>111.8</v>
       </c>
     </row>
+    <row r="46" spans="1:13">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46">
+        <v>117.2</v>
+      </c>
+      <c r="C46">
+        <v>108.7</v>
+      </c>
+      <c r="D46">
+        <v>100.38</v>
+      </c>
+      <c r="E46">
+        <v>112.83</v>
+      </c>
+      <c r="F46">
+        <v>112.58</v>
+      </c>
+      <c r="G46">
+        <v>107.4</v>
+      </c>
+      <c r="H46">
+        <v>114.3</v>
+      </c>
+      <c r="I46">
+        <v>93.52</v>
+      </c>
+      <c r="J46">
+        <v>109.72</v>
+      </c>
+      <c r="K46">
+        <v>112.31</v>
+      </c>
+      <c r="L46">
+        <v>112.04</v>
+      </c>
+      <c r="M46">
+        <v>112.78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2/5/1/Divisiones 2018 a 2021 - Mensual.xlsx
+++ b/2/5/1/Divisiones 2018 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Serie</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -545,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2437,6 +2440,47 @@
         <v>112.78</v>
       </c>
     </row>
+    <row r="47" spans="1:13">
+      <c r="A47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47">
+        <v>118.03</v>
+      </c>
+      <c r="C47">
+        <v>108.87</v>
+      </c>
+      <c r="D47">
+        <v>97.11</v>
+      </c>
+      <c r="E47">
+        <v>114.26</v>
+      </c>
+      <c r="F47">
+        <v>111.31</v>
+      </c>
+      <c r="G47">
+        <v>107.8</v>
+      </c>
+      <c r="H47">
+        <v>118.79</v>
+      </c>
+      <c r="I47">
+        <v>93.31999999999999</v>
+      </c>
+      <c r="J47">
+        <v>118.26</v>
+      </c>
+      <c r="K47">
+        <v>112.31</v>
+      </c>
+      <c r="L47">
+        <v>114.55</v>
+      </c>
+      <c r="M47">
+        <v>112.37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
